--- a/Data/raw_survey_data.xlsx
+++ b/Data/raw_survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanorc_worklaptop/Desktop/EEF1A2 paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F3B8D85-B705-B140-91B0-36D3B8140E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232CBDDC-638D-984F-888A-8E743FDAC9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15660" xr2:uid="{86F7BC80-727E-8F46-B276-A76C8ADF1A43}"/>
   </bookViews>
@@ -533,9 +533,6 @@
     <t xml:space="preserve">That she has daily care institution and so I have time 4-6 hours a day for my housework and...2 of my rest :) +    The most rewarding aspect of living with a child with eEF1A2 genetic disorder is to see her grow  and to see her thrive beyond every doctor's, specialist's and teachers expectations. Every phisically, mentally or psyhologically, emotionally progress I recognise in her is highly rewarding for me in terms that all the hard work, all the fight with the systems I had to go through, all the energy I put in her being provided and cared for is so much worth it.  </t>
   </si>
   <si>
-    <t>Too high costs of medicament (especially canabis sativa oil which help by daughther s all troubles) +    Since my daughter Pika Bindi was born, my job that lasts 24/7/365 started. Her symptoms started a month after she was born. As I moved from my home to city in another region with my ex husband a year before she was born I had no support from my parents, family and friends. I had no support from his parents and family either... My husband didn't recognise and evaluate or care for my needs properely, so the needs I had at that time were not fulfield at all. I had no sleep, no rest, I had lost a lot of weight… since he was going to work all the household work and care for our baby was on me… Our relationship started to seriously crack very soon… I was phisically, emotionally, mentally exhausted, emotionally abused… Our marriage finnaly felt apart at Pika's three  years old. Simultaneously the closest family members, our parents and our friends started to get more distant, as if they were ashamed about Pika's condition and our ruined marriage.    At this point there was no family and social life for me any more: literally all the time I had  – 24/7 I was providing care for my daughter. With the decition that I will take care of her no matter what  I had to give up my promissing career as bank employee. I started to work part time and spent a lot of time on medical vacation due to Pika's condition so my income was very low. From the prosperious future that was waiting for me I hit the bottom of society, fighting for my daughter's rights inside medical and school system, fighting for  my own basic rights inside medical and social service system… The bank I was working for got closed so I stayed without my part time job, without incomes, now I depend on social transfers and my daughter alimonies.</t>
-  </si>
-  <si>
     <t>Tend to disagree</t>
   </si>
   <si>
@@ -548,9 +545,6 @@
     <t>High level of distrust</t>
   </si>
   <si>
-    <t xml:space="preserve">Free access for all of medicaments for child with EEF1A2 (also vitamins supplements) +    ASPIRATIONS FOR THE FUTURE AND SOME CHALLENGING ASPECTS    My hope is that modern science would find an universal cure which would affect all the main phisiologicall symptoms and behavioural difficulties that eEF1A2 cause.    I hope that the system we live in would learn and provide the knowledge or know-how that is needed so we could offer our children (and every person with rare genetic disorders that couse communication problems)  accessible communication. Every child would have to have a possibillity for a proper communication. There should be certain social mechanisms that would force the system to enable communication between the persons with  eEF1A2 (or any other disorder in fact) and other people, the system.    I wish there would be more research done on the field of using of medical marihuana at treatments of eEF1A2. disorder symptoms. I wish there would be wide spread use of medical marihuana at treatments of symptoms of that disorder.    I wish all the treatments would be payed inside the system – by insurence, free for users (our country is known as the country where residents pay the most money for medical system compared to every other developed country so we expect that the system provides free services when needed).    I wish there would be accesible therapies (like phisiotherapy, speach and language therapy, working therapy, swimming, dancing, horse riding, hyppotherapy, massages)  included in the medical and school system.    I hope there would be more possibilitis for rehabilitation for patients, more possibilities for education of all the people who are involved in the processes of care, healing, providing for people with   eEF1A2, especially for their parents. The informations about our rights in social, medical and school system should be rights and not privilegies as they seem now becouse many times they are not accessible, are hidden, hard to find, misinpretated. One must put enormeous efforts to get valid information in medical system, school system, social services system…    At treatment of patients with  genetic disorder all the involved specialists should cooperate: the connection between them these days still doesn't exists: every specialist treats Pika by her symptoms: I wish they cooperated, they wold be more effective and learn more about disorder, Pika's needs would be better recognised, evaluated and treated on medical scale.    Systems as medical, school and social services system should work as a whole.    Doctors would have to be able to explain symptoms, treating of symptoms, use of drugs for treating them, their side effects, explicitely and in the detail. No hiding truth about possibilities and rights of their patients for their further treatments and in general becouse of insurances interests. Interests and rights of patients should be first!    </t>
-  </si>
-  <si>
     <t>bioenergetic healing (for better sleeping in ours case), rehabilitation in the term and childrens hospitals</t>
   </si>
   <si>
@@ -590,12 +584,6 @@
     <t>He currently uses an iPad in Speech Therapy and we are in the process of procuring our own iPad for speech assistance.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sebastian is very happy.  He is finally putting on his own shoes and socks and is more interested in doing things that others are doing.  Although he sleeps in a crib, he regularly sleeps through the night and still takes a daily nap.  He has a few words and spontaneously says "bye" and will say "milk" or "water" if asked if he wants those items.  </t>
-  </si>
-  <si>
-    <t>The process of learning to make words has been very slow.  With Sebastian's new interest in things, he is more likely to hurt himself.  (For example, he found an immersion blender, plugged it in, and gave himself a minor cut.  We had to move all blades much higher than you typically would for "babyproofing.)  Sebastian makes loud crying noises when unhappy or bored and it can be hard to figure out what is wrong.   I am trying to gear up to start potty training, but haven't yet tried.</t>
-  </si>
-  <si>
     <t>Understanding why speech is so difficult</t>
   </si>
   <si>
@@ -828,12 +816,6 @@
   </si>
   <si>
     <t>Speaks in whole sentences</t>
-  </si>
-  <si>
-    <t>Elliott was able to transition into public school.  He is in a PK program so the children are a bit younger than he is.  He has a 1:1 aid and therapy. He loves school and is doing well.</t>
-  </si>
-  <si>
-    <t>Elliott enjoys to do many fun things.  We need to choose family activities that  Are apprioate for Elliott.</t>
   </si>
   <si>
     <t xml:space="preserve">Nursing </t>
@@ -1072,6 +1054,24 @@
         Yes, please
 Please put your contact details (name, and preferred method of contact - e.g. email or phone number).   Then press done at the bottom of the page.
 </t>
+  </si>
+  <si>
+    <t>[CHILD'S NAME]t was able to transition into public school.  He is in a PK program so the children are a bit younger than he is.  He has a 1:1 aid and therapy. He loves school and is doing well.</t>
+  </si>
+  <si>
+    <t>[CHILD'S NAME]t enjoys to do many fun things.  We need to choose family activities that  Are apprioate for [CHILD'S NAME]t.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[CHILD'S NAME] is very happy.  He is finally putting on his own shoes and socks and is more interested in doing things that others are doing.  Although he sleeps in a crib, he regularly sleeps through the night and still takes a daily nap.  He has a few words and spontaneously says "bye" and will say "milk" or "water" if asked if he wants those items.  </t>
+  </si>
+  <si>
+    <t>The process of learning to make words has been very slow.  With [CHILD'S NAME]'s new interest in things, he is more likely to hurt himself.  (For example, he found an immersion blender, plugged it in, and gave himself a minor cut.  We had to move all blades much higher than you typically would for "babyproofing.)  [CHILD'S NAME] makes loud crying noises when unhappy or bored and it can be hard to figure out what is wrong.   I am trying to gear up to start potty training, but haven't yet tried.</t>
+  </si>
+  <si>
+    <t>Too high costs of medicament (especially canabis sativa oil which help by daughther s all troubles) +    Since my daughter [CHILD'S NAME] was born, my job that lasts 24/7/365 started. Her symptoms started a month after she was born. As I moved from my home to city in another region with my ex husband a year before she was born I had no support from my parents, family and friends. I had no support from his parents and family either... My husband didn't recognise and evaluate or care for my needs properely, so the needs I had at that time were not fulfield at all. I had no sleep, no rest, I had lost a lot of weight… since he was going to work all the household work and care for our baby was on me… Our relationship started to seriously crack very soon… I was phisically, emotionally, mentally exhausted, emotionally abused… Our marriage finnaly felt apart at [CHILD'S NAME]'s three  years old. Simultaneously the closest family members, our parents and our friends started to get more distant, as if they were ashamed about [CHILD'S NAME]'s condition and our ruined marriage.    At this point there was no family and social life for me any more: literally all the time I had  – 24/7 I was providing care for my daughter. With the decition that I will take care of her no matter what  I had to give up my promissing career as bank employee. I started to work part time and spent a lot of time on medical vacation due to [CHILD'S NAME]'s condition so my income was very low. From the prosperious future that was waiting for me I hit the bottom of society, fighting for my daughter's rights inside medical and school system, fighting for  my own basic rights inside medical and social service system… The bank I was working for got closed so I stayed without my part time job, without incomes, now I depend on social transfers and my daughter alimonies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free access for all of medicaments for child with EEF1A2 (also vitamins supplements) +    ASPIRATIONS FOR THE FUTURE AND SOME CHALLENGING ASPECTS    My hope is that modern science would find an universal cure which would affect all the main phisiologicall symptoms and behavioural difficulties that eEF1A2 cause.    I hope that the system we live in would learn and provide the knowledge or know-how that is needed so we could offer our children (and every person with rare genetic disorders that couse communication problems)  accessible communication. Every child would have to have a possibillity for a proper communication. There should be certain social mechanisms that would force the system to enable communication between the persons with  eEF1A2 (or any other disorder in fact) and other people, the system.    I wish there would be more research done on the field of using of medical marihuana at treatments of eEF1A2. disorder symptoms. I wish there would be wide spread use of medical marihuana at treatments of symptoms of that disorder.    I wish all the treatments would be payed inside the system – by insurence, free for users (our country is known as the country where residents pay the most money for medical system compared to every other developed country so we expect that the system provides free services when needed).    I wish there would be accesible therapies (like phisiotherapy, speach and language therapy, working therapy, swimming, dancing, horse riding, hyppotherapy, massages)  included in the medical and school system.    I hope there would be more possibilitis for rehabilitation for patients, more possibilities for education of all the people who are involved in the processes of care, healing, providing for people with   eEF1A2, especially for their parents. The informations about our rights in social, medical and school system should be rights and not privilegies as they seem now becouse many times they are not accessible, are hidden, hard to find, misinpretated. One must put enormeous efforts to get valid information in medical system, school system, social services system…    At treatment of patients with  genetic disorder all the involved specialists should cooperate: the connection between them these days still doesn't exists: every specialist treats [CHILD'S NAME] by her symptoms: I wish they cooperated, they wold be more effective and learn more about disorder, [CHILD'S NAME]'s needs would be better recognised, evaluated and treated on medical scale.    Systems as medical, school and social services system should work as a whole.    Doctors would have to be able to explain symptoms, treating of symptoms, use of drugs for treating them, their side effects, explicitely and in the detail. No hiding truth about possibilities and rights of their patients for their further treatments and in general becouse of insurances interests. Interests and rights of patients should be first!    </t>
   </si>
 </sst>
 </file>
@@ -1913,7 +1913,7 @@
         <v>34</v>
       </c>
       <c r="DW1" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2661,7 +2661,7 @@
         <v>154</v>
       </c>
       <c r="DW3" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2840,7 +2840,7 @@
         <v>164</v>
       </c>
       <c r="BG4" s="6" t="s">
-        <v>165</v>
+        <v>342</v>
       </c>
       <c r="BH4" s="6" t="s">
         <v>138</v>
@@ -2861,22 +2861,22 @@
         <v>142</v>
       </c>
       <c r="BN4" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BO4" s="6" t="s">
         <v>140</v>
       </c>
       <c r="BP4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="BQ4" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="BQ4" s="6" t="s">
+      <c r="BR4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="BS4" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="BR4" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="BS4" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="BT4" s="6" t="s">
         <v>141</v>
@@ -2924,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="CI4" s="6" t="s">
-        <v>170</v>
+        <v>343</v>
       </c>
       <c r="CJ4" s="6">
         <v>6</v>
@@ -2948,10 +2948,10 @@
         <v>4</v>
       </c>
       <c r="CQ4" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="CR4" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="CS4" s="6" t="s">
         <v>142</v>
@@ -2998,7 +2998,7 @@
         <v>113</v>
       </c>
       <c r="DI4" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="DJ4" s="6" t="s">
         <v>115</v>
@@ -3016,7 +3016,7 @@
         <v>119</v>
       </c>
       <c r="DO4" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="DP4" s="6" t="s">
         <v>142</v>
@@ -3025,7 +3025,7 @@
         <v>144</v>
       </c>
       <c r="DR4" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="DS4" s="6" t="s">
         <v>148</v>
@@ -3034,13 +3034,13 @@
         <v>144</v>
       </c>
       <c r="DU4" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="DV4" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="DW4" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3054,7 +3054,7 @@
         <v>126</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E5" s="4">
         <v>37</v>
@@ -3063,19 +3063,19 @@
         <v>128</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>131</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>161</v>
@@ -3209,13 +3209,13 @@
         <v>162</v>
       </c>
       <c r="BE5" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BF5" s="5" t="s">
-        <v>184</v>
+        <v>340</v>
       </c>
       <c r="BG5" s="4" t="s">
-        <v>185</v>
+        <v>341</v>
       </c>
       <c r="BH5" s="4" t="s">
         <v>138</v>
@@ -3236,16 +3236,16 @@
         <v>138</v>
       </c>
       <c r="BN5" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BO5" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BP5" s="4" t="s">
         <v>141</v>
       </c>
       <c r="BQ5" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BR5" s="4" t="s">
         <v>141</v>
@@ -3299,7 +3299,7 @@
         <v>4</v>
       </c>
       <c r="CI5" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="CJ5" s="4">
         <v>1</v>
@@ -3383,7 +3383,7 @@
         <v>119</v>
       </c>
       <c r="DO5" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="DP5" s="4" t="s">
         <v>148</v>
@@ -3403,7 +3403,7 @@
       <c r="DU5" s="4"/>
       <c r="DV5" s="4"/>
       <c r="DW5" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:127" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3417,7 +3417,7 @@
         <v>126</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E6" s="4">
         <v>38</v>
@@ -3426,19 +3426,19 @@
         <v>128</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>131</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>134</v>
@@ -3573,14 +3573,14 @@
         <v>3</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="BE6" s="4"/>
       <c r="BF6" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BG6" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BH6" s="4" t="s">
         <v>138</v>
@@ -3592,7 +3592,7 @@
         <v>142</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BL6" s="4" t="s">
         <v>139</v>
@@ -3604,22 +3604,22 @@
         <v>139</v>
       </c>
       <c r="BO6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BP6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BQ6" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="BP6" s="4" t="s">
+      <c r="BR6" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="BQ6" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="BR6" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="BS6" s="4" t="s">
         <v>141</v>
       </c>
       <c r="BT6" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BU6" s="4" t="s">
         <v>139</v>
@@ -3664,7 +3664,7 @@
         <v>4</v>
       </c>
       <c r="CI6" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="CJ6" s="4">
         <v>3</v>
@@ -3760,13 +3760,13 @@
         <v>139</v>
       </c>
       <c r="DU6" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="DV6" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="DW6" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3780,7 +3780,7 @@
         <v>126</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E7" s="8">
         <v>49</v>
@@ -3789,16 +3789,16 @@
         <v>128</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>158</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>160</v>
@@ -3936,16 +3936,16 @@
         <v>3</v>
       </c>
       <c r="BD7" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="BE7" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="BG7" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="BH7" s="8" t="s">
         <v>138</v>
@@ -3954,10 +3954,10 @@
         <v>138</v>
       </c>
       <c r="BJ7" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BK7" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BL7" s="8" t="s">
         <v>139</v>
@@ -3972,19 +3972,19 @@
         <v>140</v>
       </c>
       <c r="BP7" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BQ7" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BR7" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BS7" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="BT7" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="BT7" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="BU7" s="8" t="s">
         <v>139</v>
@@ -4029,7 +4029,7 @@
         <v>3</v>
       </c>
       <c r="CI7" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="CJ7" s="8">
         <v>7</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="CQ7" s="8"/>
       <c r="CR7" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="CS7" s="8" t="s">
         <v>148</v>
@@ -4103,7 +4103,7 @@
         <v>113</v>
       </c>
       <c r="DI7" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="DJ7" s="8" t="s">
         <v>115</v>
@@ -4117,7 +4117,7 @@
         <v>119</v>
       </c>
       <c r="DO7" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="DP7" s="8" t="s">
         <v>144</v>
@@ -4136,10 +4136,10 @@
       </c>
       <c r="DU7" s="8"/>
       <c r="DV7" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="DW7" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:127" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4150,10 +4150,10 @@
         <v>128</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E8" s="11">
         <v>48</v>
@@ -4171,7 +4171,7 @@
         <v>131</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>160</v>
@@ -4307,16 +4307,16 @@
         <v>4</v>
       </c>
       <c r="BD8" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="BE8" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="BF8" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="BG8" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="BH8" s="11" t="s">
         <v>142</v>
@@ -4325,7 +4325,7 @@
         <v>142</v>
       </c>
       <c r="BJ8" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BK8" s="11" t="s">
         <v>144</v>
@@ -4340,19 +4340,19 @@
         <v>144</v>
       </c>
       <c r="BO8" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BP8" s="11" t="s">
         <v>140</v>
       </c>
       <c r="BQ8" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BR8" s="11" t="s">
         <v>141</v>
       </c>
       <c r="BS8" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BT8" s="11" t="s">
         <v>140</v>
@@ -4422,10 +4422,10 @@
         <v>7</v>
       </c>
       <c r="CQ8" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="CR8" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="CS8" s="11" t="s">
         <v>142</v>
@@ -4504,7 +4504,7 @@
       <c r="DU8" s="11"/>
       <c r="DV8" s="11"/>
       <c r="DW8" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4518,7 +4518,7 @@
         <v>126</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E9" s="4">
         <v>35</v>
@@ -4527,22 +4527,22 @@
         <v>128</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>131</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M9" s="4">
         <v>2</v>
@@ -4674,23 +4674,23 @@
         <v>4</v>
       </c>
       <c r="BD9" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="BE9" s="4"/>
       <c r="BF9" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BG9" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="BH9" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BI9" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BK9" s="4" t="s">
         <v>138</v>
@@ -4705,13 +4705,13 @@
         <v>138</v>
       </c>
       <c r="BO9" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BP9" s="4" t="s">
         <v>140</v>
       </c>
       <c r="BQ9" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BR9" s="4" t="s">
         <v>140</v>
@@ -4720,7 +4720,7 @@
         <v>141</v>
       </c>
       <c r="BT9" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BU9" s="4" t="s">
         <v>138</v>
@@ -4875,7 +4875,7 @@
         <v>126</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E10" s="4">
         <v>33</v>
@@ -4884,22 +4884,22 @@
         <v>128</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>131</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>160</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M10" s="4">
         <v>3</v>
@@ -5031,14 +5031,14 @@
         <v>3</v>
       </c>
       <c r="BD10" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="BE10" s="4"/>
       <c r="BF10" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="BG10" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="BH10" s="4" t="s">
         <v>138</v>
@@ -5059,7 +5059,7 @@
         <v>139</v>
       </c>
       <c r="BN10" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BO10" s="4" t="s">
         <v>140</v>
@@ -5068,7 +5068,7 @@
         <v>140</v>
       </c>
       <c r="BQ10" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BR10" s="4" t="s">
         <v>140</v>
@@ -5144,7 +5144,7 @@
         <v>2</v>
       </c>
       <c r="CQ10" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="CR10" s="4"/>
       <c r="CS10" s="4" t="s">
@@ -5198,7 +5198,7 @@
         <v>152</v>
       </c>
       <c r="DQ10" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="DR10" s="4" t="s">
         <v>139</v>
@@ -5224,7 +5224,7 @@
         <v>126</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E11" s="8">
         <v>35</v>
@@ -5233,16 +5233,16 @@
         <v>128</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>158</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>160</v>
@@ -5383,13 +5383,13 @@
         <v>162</v>
       </c>
       <c r="BE11" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="BG11" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="BH11" s="8" t="s">
         <v>142</v>
@@ -5413,10 +5413,10 @@
         <v>144</v>
       </c>
       <c r="BO11" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BP11" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BQ11" s="8" t="s">
         <v>140</v>
@@ -5425,10 +5425,10 @@
         <v>140</v>
       </c>
       <c r="BS11" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BT11" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BU11" s="8" t="s">
         <v>142</v>
@@ -5473,7 +5473,7 @@
         <v>6</v>
       </c>
       <c r="CI11" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="CJ11" s="8">
         <v>3</v>
@@ -5577,7 +5577,7 @@
       <c r="DU11" s="8"/>
       <c r="DV11" s="8"/>
       <c r="DW11" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:127" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5588,10 +5588,10 @@
         <v>128</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E12" s="11">
         <v>35</v>
@@ -5600,16 +5600,16 @@
         <v>128</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>131</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>160</v>
@@ -5747,16 +5747,16 @@
         <v>4</v>
       </c>
       <c r="BD12" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BE12" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="BF12" s="12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BG12" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BH12" s="11" t="s">
         <v>138</v>
@@ -5777,13 +5777,13 @@
         <v>139</v>
       </c>
       <c r="BN12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO12" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="BO12" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="BP12" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BQ12" s="11" t="s">
         <v>140</v>
@@ -5792,10 +5792,10 @@
         <v>140</v>
       </c>
       <c r="BS12" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BT12" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BU12" s="11" t="s">
         <v>142</v>
@@ -5840,7 +5840,7 @@
         <v>6</v>
       </c>
       <c r="CI12" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="CJ12" s="11">
         <v>1</v>
@@ -5864,10 +5864,10 @@
         <v>5</v>
       </c>
       <c r="CQ12" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="CR12" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="CS12" s="11" t="s">
         <v>142</v>
@@ -5948,13 +5948,13 @@
         <v>151</v>
       </c>
       <c r="DU12" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="DV12" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="DW12" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -5968,7 +5968,7 @@
         <v>126</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E13" s="4">
         <v>37</v>
@@ -5977,163 +5977,163 @@
         <v>128</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>131</v>
       </c>
       <c r="J13" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M13" s="4">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4">
+        <v>5</v>
+      </c>
+      <c r="P13" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>2</v>
+      </c>
+      <c r="R13" s="4">
+        <v>4</v>
+      </c>
+      <c r="S13" s="4">
+        <v>4</v>
+      </c>
+      <c r="T13" s="4">
+        <v>5</v>
+      </c>
+      <c r="U13" s="4">
+        <v>4</v>
+      </c>
+      <c r="V13" s="4">
+        <v>5</v>
+      </c>
+      <c r="W13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>5</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>3</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV13" s="4">
+        <v>3</v>
+      </c>
+      <c r="AW13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY13" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ13" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA13" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB13" s="4">
+        <v>3</v>
+      </c>
+      <c r="BC13" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD13" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="BE13" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="BF13" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="BG13" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="M13" s="4">
-        <v>5</v>
-      </c>
-      <c r="N13" s="4">
-        <v>5</v>
-      </c>
-      <c r="O13" s="4">
-        <v>5</v>
-      </c>
-      <c r="P13" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>2</v>
-      </c>
-      <c r="R13" s="4">
-        <v>4</v>
-      </c>
-      <c r="S13" s="4">
-        <v>4</v>
-      </c>
-      <c r="T13" s="4">
-        <v>5</v>
-      </c>
-      <c r="U13" s="4">
-        <v>4</v>
-      </c>
-      <c r="V13" s="4">
-        <v>5</v>
-      </c>
-      <c r="W13" s="4">
-        <v>1</v>
-      </c>
-      <c r="X13" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>5</v>
-      </c>
-      <c r="AB13" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC13" s="4">
-        <v>4</v>
-      </c>
-      <c r="AD13" s="4">
-        <v>3</v>
-      </c>
-      <c r="AE13" s="4">
-        <v>4</v>
-      </c>
-      <c r="AF13" s="4">
-        <v>4</v>
-      </c>
-      <c r="AG13" s="4">
-        <v>5</v>
-      </c>
-      <c r="AH13" s="4">
-        <v>5</v>
-      </c>
-      <c r="AI13" s="4">
-        <v>4</v>
-      </c>
-      <c r="AJ13" s="4">
-        <v>4</v>
-      </c>
-      <c r="AK13" s="4">
-        <v>4</v>
-      </c>
-      <c r="AL13" s="4">
-        <v>4</v>
-      </c>
-      <c r="AM13" s="4">
-        <v>4</v>
-      </c>
-      <c r="AN13" s="4">
-        <v>4</v>
-      </c>
-      <c r="AO13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ13" s="4">
-        <v>3</v>
-      </c>
-      <c r="AR13" s="4">
-        <v>4</v>
-      </c>
-      <c r="AS13" s="4">
-        <v>4</v>
-      </c>
-      <c r="AT13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="4">
-        <v>2</v>
-      </c>
-      <c r="AV13" s="4">
-        <v>3</v>
-      </c>
-      <c r="AW13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="4">
-        <v>2</v>
-      </c>
-      <c r="AY13" s="4">
-        <v>3</v>
-      </c>
-      <c r="AZ13" s="4">
-        <v>3</v>
-      </c>
-      <c r="BA13" s="4">
-        <v>2</v>
-      </c>
-      <c r="BB13" s="4">
-        <v>3</v>
-      </c>
-      <c r="BC13" s="4">
-        <v>2</v>
-      </c>
-      <c r="BD13" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="BE13" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="BF13" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="BG13" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="BH13" s="4" t="s">
         <v>138</v>
@@ -6145,7 +6145,7 @@
         <v>138</v>
       </c>
       <c r="BK13" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BL13" s="4" t="s">
         <v>138</v>
@@ -6157,22 +6157,22 @@
         <v>144</v>
       </c>
       <c r="BO13" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BP13" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BQ13" s="4" t="s">
         <v>141</v>
       </c>
       <c r="BR13" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BS13" s="4" t="s">
         <v>140</v>
       </c>
       <c r="BT13" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BU13" s="4" t="s">
         <v>138</v>
@@ -6285,7 +6285,7 @@
         <v>113</v>
       </c>
       <c r="DI13" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="DJ13" s="4"/>
       <c r="DK13" s="4" t="s">
@@ -6304,7 +6304,7 @@
         <v>144</v>
       </c>
       <c r="DR13" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="DS13" s="4" t="s">
         <v>152</v>
@@ -6315,7 +6315,7 @@
       <c r="DU13" s="4"/>
       <c r="DV13" s="4"/>
       <c r="DW13" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6329,7 +6329,7 @@
         <v>126</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E14" s="4">
         <v>39</v>
@@ -6338,7 +6338,7 @@
         <v>128</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H14" s="4">
         <v>4</v>
@@ -6347,13 +6347,13 @@
         <v>131</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>133</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M14" s="4">
         <v>2</v>
@@ -6483,14 +6483,14 @@
         <v>5</v>
       </c>
       <c r="BD14" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BE14" s="4"/>
       <c r="BF14" s="5" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="BG14" s="4" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="BH14" s="4" t="s">
         <v>142</v>
@@ -6499,7 +6499,7 @@
         <v>142</v>
       </c>
       <c r="BJ14" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BK14" s="4" t="s">
         <v>144</v>
@@ -6654,7 +6654,7 @@
         <v>119</v>
       </c>
       <c r="DO14" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="DP14" s="4" t="s">
         <v>142</v>
@@ -6672,11 +6672,11 @@
         <v>142</v>
       </c>
       <c r="DU14" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="DV14" s="4"/>
       <c r="DW14" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6690,7 +6690,7 @@
         <v>126</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E15" s="4">
         <v>47</v>
@@ -6699,22 +6699,22 @@
         <v>128</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M15" s="4">
         <v>3</v>
@@ -6846,14 +6846,14 @@
         <v>4</v>
       </c>
       <c r="BD15" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BE15" s="4"/>
       <c r="BF15" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="BG15" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="BH15" s="4" t="s">
         <v>139</v>
@@ -6862,7 +6862,7 @@
         <v>139</v>
       </c>
       <c r="BJ15" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BK15" s="4" t="s">
         <v>139</v>
@@ -6874,10 +6874,10 @@
         <v>139</v>
       </c>
       <c r="BN15" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BO15" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BP15" s="4" t="s">
         <v>140</v>
@@ -6937,7 +6937,7 @@
         <v>5</v>
       </c>
       <c r="CI15" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="CJ15" s="4">
         <v>2</v>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="CQ15" s="4"/>
       <c r="CR15" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="CS15" s="4" t="s">
         <v>148</v>
@@ -7011,7 +7011,7 @@
         <v>113</v>
       </c>
       <c r="DI15" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="DJ15" s="4" t="s">
         <v>115</v>
@@ -7045,13 +7045,13 @@
         <v>148</v>
       </c>
       <c r="DU15" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="DV15" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="DW15" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7065,7 +7065,7 @@
         <v>126</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E16" s="6">
         <v>35</v>
@@ -7074,20 +7074,20 @@
         <v>125</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>131</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M16" s="6">
         <v>1</v>
@@ -7219,16 +7219,16 @@
         <v>4</v>
       </c>
       <c r="BD16" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BE16" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BF16" s="13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="BG16" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="BH16" s="6" t="s">
         <v>138</v>
@@ -7243,10 +7243,10 @@
         <v>139</v>
       </c>
       <c r="BL16" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BM16" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN16" s="6" t="s">
         <v>139</v>
@@ -7255,16 +7255,16 @@
         <v>141</v>
       </c>
       <c r="BP16" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="BQ16" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="BQ16" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="BR16" s="6" t="s">
         <v>141</v>
       </c>
       <c r="BS16" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BT16" s="6" t="s">
         <v>140</v>
@@ -7312,7 +7312,7 @@
         <v>6</v>
       </c>
       <c r="CI16" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="CJ16" s="6">
         <v>5</v>
@@ -7336,10 +7336,10 @@
         <v>4</v>
       </c>
       <c r="CQ16" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="CR16" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="CS16" s="6" t="s">
         <v>139</v>
@@ -7388,7 +7388,7 @@
         <v>113</v>
       </c>
       <c r="DI16" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="DJ16" s="6"/>
       <c r="DK16" s="6"/>
@@ -7414,7 +7414,7 @@
       <c r="DU16" s="6"/>
       <c r="DV16" s="6"/>
       <c r="DW16" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7428,7 +7428,7 @@
         <v>126</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E17" s="6">
         <v>62</v>
@@ -7446,13 +7446,13 @@
         <v>158</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M17" s="6">
         <v>3</v>
@@ -7587,13 +7587,13 @@
         <v>162</v>
       </c>
       <c r="BE17" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="BF17" s="13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="BG17" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="BH17" s="6" t="s">
         <v>138</v>
@@ -7626,13 +7626,13 @@
         <v>141</v>
       </c>
       <c r="BR17" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BS17" s="6" t="s">
         <v>140</v>
       </c>
       <c r="BT17" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BU17" s="6" t="s">
         <v>138</v>
@@ -7677,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="CI17" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="CJ17" s="6">
         <v>3</v>
@@ -7701,10 +7701,10 @@
         <v>7</v>
       </c>
       <c r="CQ17" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="CR17" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="CS17" s="6" t="s">
         <v>139</v>
@@ -7757,7 +7757,7 @@
         <v>119</v>
       </c>
       <c r="DO17" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="DP17" s="6" t="s">
         <v>148</v>
@@ -7775,11 +7775,11 @@
         <v>139</v>
       </c>
       <c r="DU17" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="DV17" s="6"/>
       <c r="DW17" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7793,7 +7793,7 @@
         <v>126</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E18" s="6">
         <v>40</v>
@@ -7802,19 +7802,19 @@
         <v>125</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>158</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>161</v>
@@ -7949,14 +7949,14 @@
         <v>4</v>
       </c>
       <c r="BD18" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="BE18" s="6"/>
       <c r="BF18" s="13" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="BG18" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="BH18" s="6" t="s">
         <v>142</v>
@@ -7968,7 +7968,7 @@
         <v>139</v>
       </c>
       <c r="BK18" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BL18" s="6" t="s">
         <v>138</v>
@@ -7977,7 +7977,7 @@
         <v>139</v>
       </c>
       <c r="BN18" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BO18" s="6" t="s">
         <v>141</v>
@@ -7986,10 +7986,10 @@
         <v>140</v>
       </c>
       <c r="BQ18" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BR18" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BS18" s="6" t="s">
         <v>140</v>
@@ -8040,7 +8040,7 @@
         <v>6</v>
       </c>
       <c r="CI18" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="CJ18" s="6">
         <v>4</v>
@@ -8136,13 +8136,13 @@
         <v>144</v>
       </c>
       <c r="DU18" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="DV18" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="DW18" s="6" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -8156,7 +8156,7 @@
         <v>126</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E19" s="4">
         <v>40</v>
@@ -8174,10 +8174,10 @@
         <v>158</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>161</v>
@@ -8310,14 +8310,14 @@
         <v>4</v>
       </c>
       <c r="BD19" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BE19" s="4"/>
       <c r="BF19" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="BG19" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="BH19" s="4" t="s">
         <v>142</v>
@@ -8341,7 +8341,7 @@
         <v>139</v>
       </c>
       <c r="BO19" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BP19" s="4" t="s">
         <v>140</v>
@@ -8489,7 +8489,7 @@
       <c r="DU19" s="4"/>
       <c r="DV19" s="4"/>
       <c r="DW19" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -8503,7 +8503,7 @@
         <v>126</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E20" s="6">
         <v>46</v>
@@ -8512,16 +8512,16 @@
         <v>125</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>131</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>133</v>
@@ -8659,16 +8659,16 @@
         <v>2</v>
       </c>
       <c r="BD20" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="BE20" s="6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="BF20" s="13" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="BG20" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="BH20" s="6" t="s">
         <v>142</v>
@@ -8680,28 +8680,28 @@
         <v>139</v>
       </c>
       <c r="BK20" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BL20" s="6" t="s">
         <v>142</v>
       </c>
       <c r="BM20" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN20" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BO20" s="6" t="s">
         <v>141</v>
       </c>
       <c r="BP20" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BQ20" s="6" t="s">
         <v>141</v>
       </c>
       <c r="BR20" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BS20" s="6" t="s">
         <v>140</v>
@@ -8774,10 +8774,10 @@
         <v>7</v>
       </c>
       <c r="CQ20" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="CR20" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="CS20" s="6" t="s">
         <v>148</v>
@@ -8852,7 +8852,7 @@
       <c r="DU20" s="6"/>
       <c r="DV20" s="6"/>
       <c r="DW20" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -8863,10 +8863,10 @@
         <v>128</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E21" s="6">
         <v>37</v>
@@ -8875,13 +8875,13 @@
         <v>125</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6" t="s">
@@ -9020,7 +9020,7 @@
         <v>2</v>
       </c>
       <c r="BD21" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BE21" s="6"/>
       <c r="BF21" s="13"/>
@@ -9047,22 +9047,22 @@
         <v>139</v>
       </c>
       <c r="BO21" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="BP21" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="BP21" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="BQ21" s="6" t="s">
         <v>140</v>
       </c>
       <c r="BR21" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BS21" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="BT21" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="BT21" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="BU21" s="6" t="s">
         <v>138</v>
@@ -9207,7 +9207,7 @@
         <v>126</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E22" s="6">
         <v>36</v>
@@ -9216,16 +9216,16 @@
         <v>125</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>131</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>160</v>
@@ -9363,14 +9363,14 @@
         <v>1</v>
       </c>
       <c r="BD22" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BE22" s="6"/>
       <c r="BF22" s="13" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="BG22" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="BH22" s="6" t="s">
         <v>138</v>
@@ -9382,7 +9382,7 @@
         <v>139</v>
       </c>
       <c r="BK22" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BL22" s="6" t="s">
         <v>138</v>
@@ -9391,7 +9391,7 @@
         <v>139</v>
       </c>
       <c r="BN22" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BO22" s="6" t="s">
         <v>140</v>
@@ -9400,7 +9400,7 @@
         <v>140</v>
       </c>
       <c r="BQ22" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BR22" s="6" t="s">
         <v>140</v>
@@ -9551,10 +9551,10 @@
       </c>
       <c r="DU22" s="6"/>
       <c r="DV22" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="DW22" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -9565,10 +9565,10 @@
         <v>128</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E23" s="6">
         <v>33</v>
@@ -9577,22 +9577,22 @@
         <v>125</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>158</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M23" s="6">
         <v>4</v>
@@ -9724,16 +9724,16 @@
         <v>4</v>
       </c>
       <c r="BD23" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BE23" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="BF23" s="13" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="BG23" s="6" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="BH23" s="6" t="s">
         <v>142</v>
@@ -9745,7 +9745,7 @@
         <v>138</v>
       </c>
       <c r="BK23" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BL23" s="6" t="s">
         <v>142</v>
@@ -9760,19 +9760,19 @@
         <v>140</v>
       </c>
       <c r="BP23" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BQ23" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BR23" s="6" t="s">
         <v>140</v>
       </c>
       <c r="BS23" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BT23" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BU23" s="6" t="s">
         <v>142</v>
@@ -9839,7 +9839,7 @@
         <v>6</v>
       </c>
       <c r="CQ23" s="6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="CR23" s="6"/>
       <c r="CS23" s="6" t="s">
@@ -9906,10 +9906,10 @@
       </c>
       <c r="DO23" s="6"/>
       <c r="DP23" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="DQ23" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="DR23" s="6" t="s">
         <v>139</v>
@@ -9923,7 +9923,7 @@
       <c r="DU23" s="6"/>
       <c r="DV23" s="6"/>
       <c r="DW23" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -9937,7 +9937,7 @@
         <v>126</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E24" s="6">
         <v>26</v>
@@ -9946,22 +9946,22 @@
         <v>125</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>131</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M24" s="6">
         <v>2</v>
@@ -10093,14 +10093,14 @@
         <v>3</v>
       </c>
       <c r="BD24" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BE24" s="6"/>
       <c r="BF24" s="13" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="BG24" s="6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="BH24" s="6" t="s">
         <v>142</v>
@@ -10124,22 +10124,22 @@
         <v>144</v>
       </c>
       <c r="BO24" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BP24" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BQ24" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BR24" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BS24" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BT24" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BU24" s="6" t="s">
         <v>142</v>
@@ -10282,7 +10282,7 @@
       <c r="DU24" s="6"/>
       <c r="DV24" s="6"/>
       <c r="DW24" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -11368,7 +11368,7 @@
         <v>154</v>
       </c>
       <c r="DW30" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -11382,7 +11382,7 @@
         <v>126</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E31" s="4">
         <v>37</v>
@@ -11394,16 +11394,16 @@
         <v>4.08</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>131</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>161</v>
@@ -11537,13 +11537,13 @@
         <v>162</v>
       </c>
       <c r="BE31" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BF31" s="5" t="s">
-        <v>184</v>
+        <v>340</v>
       </c>
       <c r="BG31" s="4" t="s">
-        <v>185</v>
+        <v>341</v>
       </c>
       <c r="BH31" s="4" t="s">
         <v>138</v>
@@ -11564,16 +11564,16 @@
         <v>138</v>
       </c>
       <c r="BN31" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BO31" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BP31" s="4" t="s">
         <v>141</v>
       </c>
       <c r="BQ31" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BR31" s="4" t="s">
         <v>141</v>
@@ -11627,7 +11627,7 @@
         <v>4</v>
       </c>
       <c r="CI31" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="CJ31" s="4">
         <v>1</v>
@@ -11711,7 +11711,7 @@
         <v>119</v>
       </c>
       <c r="DO31" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="DP31" s="4" t="s">
         <v>148</v>
@@ -11731,7 +11731,7 @@
       <c r="DU31" s="4"/>
       <c r="DV31" s="4"/>
       <c r="DW31" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:127" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11745,7 +11745,7 @@
         <v>126</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E32" s="4">
         <v>38</v>
@@ -11757,16 +11757,16 @@
         <v>8.75</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>131</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>134</v>
@@ -11901,14 +11901,14 @@
         <v>3</v>
       </c>
       <c r="BD32" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="BE32" s="4"/>
       <c r="BF32" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BG32" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BH32" s="4" t="s">
         <v>138</v>
@@ -11920,7 +11920,7 @@
         <v>142</v>
       </c>
       <c r="BK32" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BL32" s="4" t="s">
         <v>139</v>
@@ -11932,22 +11932,22 @@
         <v>139</v>
       </c>
       <c r="BO32" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BP32" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BQ32" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="BP32" s="4" t="s">
+      <c r="BR32" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="BQ32" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="BR32" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="BS32" s="4" t="s">
         <v>141</v>
       </c>
       <c r="BT32" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BU32" s="4" t="s">
         <v>139</v>
@@ -11992,7 +11992,7 @@
         <v>4</v>
       </c>
       <c r="CI32" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="CJ32" s="4">
         <v>3</v>
@@ -12088,13 +12088,13 @@
         <v>139</v>
       </c>
       <c r="DU32" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="DV32" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="DW32" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -12108,7 +12108,7 @@
         <v>126</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E33" s="8">
         <v>49</v>
@@ -12120,13 +12120,13 @@
         <v>14.67</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>158</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>160</v>
@@ -12264,16 +12264,16 @@
         <v>3</v>
       </c>
       <c r="BD33" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="BE33" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="BF33" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="BG33" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="BH33" s="8" t="s">
         <v>138</v>
@@ -12282,10 +12282,10 @@
         <v>138</v>
       </c>
       <c r="BJ33" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BK33" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BL33" s="8" t="s">
         <v>139</v>
@@ -12300,19 +12300,19 @@
         <v>140</v>
       </c>
       <c r="BP33" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BQ33" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BR33" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BS33" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="BT33" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="BT33" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="BU33" s="8" t="s">
         <v>139</v>
@@ -12357,7 +12357,7 @@
         <v>3</v>
       </c>
       <c r="CI33" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="CJ33" s="8">
         <v>7</v>
@@ -12382,7 +12382,7 @@
       </c>
       <c r="CQ33" s="8"/>
       <c r="CR33" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="CS33" s="8" t="s">
         <v>148</v>
@@ -12431,7 +12431,7 @@
         <v>113</v>
       </c>
       <c r="DI33" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="DJ33" s="8" t="s">
         <v>115</v>
@@ -12445,7 +12445,7 @@
         <v>119</v>
       </c>
       <c r="DO33" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="DP33" s="8" t="s">
         <v>144</v>
@@ -12464,10 +12464,10 @@
       </c>
       <c r="DU33" s="8"/>
       <c r="DV33" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="DW33" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -12481,7 +12481,7 @@
         <v>126</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E34" s="4">
         <v>35</v>
@@ -12493,19 +12493,19 @@
         <v>5</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>131</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M34" s="4">
         <v>2</v>
@@ -12637,23 +12637,23 @@
         <v>4</v>
       </c>
       <c r="BD34" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="BE34" s="4"/>
       <c r="BF34" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BG34" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="BH34" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BI34" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BJ34" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BK34" s="4" t="s">
         <v>138</v>
@@ -12668,13 +12668,13 @@
         <v>138</v>
       </c>
       <c r="BO34" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BP34" s="4" t="s">
         <v>140</v>
       </c>
       <c r="BQ34" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BR34" s="4" t="s">
         <v>140</v>
@@ -12683,7 +12683,7 @@
         <v>141</v>
       </c>
       <c r="BT34" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BU34" s="4" t="s">
         <v>138</v>
@@ -12838,7 +12838,7 @@
         <v>126</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E35" s="4">
         <v>33</v>
@@ -12850,19 +12850,19 @@
         <v>0.67</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>131</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>160</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M35" s="4">
         <v>3</v>
@@ -12994,14 +12994,14 @@
         <v>3</v>
       </c>
       <c r="BD35" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="BE35" s="4"/>
       <c r="BF35" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="BG35" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="BH35" s="4" t="s">
         <v>138</v>
@@ -13022,7 +13022,7 @@
         <v>139</v>
       </c>
       <c r="BN35" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BO35" s="4" t="s">
         <v>140</v>
@@ -13031,7 +13031,7 @@
         <v>140</v>
       </c>
       <c r="BQ35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BR35" s="4" t="s">
         <v>140</v>
@@ -13107,7 +13107,7 @@
         <v>2</v>
       </c>
       <c r="CQ35" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="CR35" s="4"/>
       <c r="CS35" s="4" t="s">
@@ -13161,7 +13161,7 @@
         <v>152</v>
       </c>
       <c r="DQ35" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="DR35" s="4" t="s">
         <v>139</v>
@@ -13187,7 +13187,7 @@
         <v>126</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E36" s="8">
         <v>35</v>
@@ -13199,13 +13199,13 @@
         <v>0.33</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>158</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>160</v>
@@ -13346,13 +13346,13 @@
         <v>162</v>
       </c>
       <c r="BE36" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="BF36" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="BG36" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="BH36" s="8" t="s">
         <v>142</v>
@@ -13376,10 +13376,10 @@
         <v>144</v>
       </c>
       <c r="BO36" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BP36" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BQ36" s="8" t="s">
         <v>140</v>
@@ -13388,10 +13388,10 @@
         <v>140</v>
       </c>
       <c r="BS36" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BT36" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BU36" s="8" t="s">
         <v>142</v>
@@ -13436,7 +13436,7 @@
         <v>6</v>
       </c>
       <c r="CI36" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="CJ36" s="8">
         <v>3</v>
@@ -13540,7 +13540,7 @@
       <c r="DU36" s="8"/>
       <c r="DV36" s="8"/>
       <c r="DW36" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -13554,7 +13554,7 @@
         <v>126</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E37" s="4">
         <v>37</v>
@@ -13566,160 +13566,160 @@
         <v>7</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>131</v>
       </c>
       <c r="J37" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M37" s="4">
+        <v>5</v>
+      </c>
+      <c r="N37" s="4">
+        <v>5</v>
+      </c>
+      <c r="O37" s="4">
+        <v>5</v>
+      </c>
+      <c r="P37" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>2</v>
+      </c>
+      <c r="R37" s="4">
+        <v>4</v>
+      </c>
+      <c r="S37" s="4">
+        <v>4</v>
+      </c>
+      <c r="T37" s="4">
+        <v>5</v>
+      </c>
+      <c r="U37" s="4">
+        <v>4</v>
+      </c>
+      <c r="V37" s="4">
+        <v>5</v>
+      </c>
+      <c r="W37" s="4">
+        <v>1</v>
+      </c>
+      <c r="X37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>4</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>5</v>
+      </c>
+      <c r="AI37" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ37" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>4</v>
+      </c>
+      <c r="AM37" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN37" s="4">
+        <v>4</v>
+      </c>
+      <c r="AO37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ37" s="4">
+        <v>3</v>
+      </c>
+      <c r="AR37" s="4">
+        <v>4</v>
+      </c>
+      <c r="AS37" s="4">
+        <v>4</v>
+      </c>
+      <c r="AT37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU37" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV37" s="4">
+        <v>3</v>
+      </c>
+      <c r="AW37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX37" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY37" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ37" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA37" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB37" s="4">
+        <v>3</v>
+      </c>
+      <c r="BC37" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD37" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="BE37" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="BF37" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="BG37" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="M37" s="4">
-        <v>5</v>
-      </c>
-      <c r="N37" s="4">
-        <v>5</v>
-      </c>
-      <c r="O37" s="4">
-        <v>5</v>
-      </c>
-      <c r="P37" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>2</v>
-      </c>
-      <c r="R37" s="4">
-        <v>4</v>
-      </c>
-      <c r="S37" s="4">
-        <v>4</v>
-      </c>
-      <c r="T37" s="4">
-        <v>5</v>
-      </c>
-      <c r="U37" s="4">
-        <v>4</v>
-      </c>
-      <c r="V37" s="4">
-        <v>5</v>
-      </c>
-      <c r="W37" s="4">
-        <v>1</v>
-      </c>
-      <c r="X37" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z37" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA37" s="4">
-        <v>5</v>
-      </c>
-      <c r="AB37" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC37" s="4">
-        <v>4</v>
-      </c>
-      <c r="AD37" s="4">
-        <v>3</v>
-      </c>
-      <c r="AE37" s="4">
-        <v>4</v>
-      </c>
-      <c r="AF37" s="4">
-        <v>4</v>
-      </c>
-      <c r="AG37" s="4">
-        <v>5</v>
-      </c>
-      <c r="AH37" s="4">
-        <v>5</v>
-      </c>
-      <c r="AI37" s="4">
-        <v>4</v>
-      </c>
-      <c r="AJ37" s="4">
-        <v>4</v>
-      </c>
-      <c r="AK37" s="4">
-        <v>4</v>
-      </c>
-      <c r="AL37" s="4">
-        <v>4</v>
-      </c>
-      <c r="AM37" s="4">
-        <v>4</v>
-      </c>
-      <c r="AN37" s="4">
-        <v>4</v>
-      </c>
-      <c r="AO37" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP37" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ37" s="4">
-        <v>3</v>
-      </c>
-      <c r="AR37" s="4">
-        <v>4</v>
-      </c>
-      <c r="AS37" s="4">
-        <v>4</v>
-      </c>
-      <c r="AT37" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU37" s="4">
-        <v>2</v>
-      </c>
-      <c r="AV37" s="4">
-        <v>3</v>
-      </c>
-      <c r="AW37" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX37" s="4">
-        <v>2</v>
-      </c>
-      <c r="AY37" s="4">
-        <v>3</v>
-      </c>
-      <c r="AZ37" s="4">
-        <v>3</v>
-      </c>
-      <c r="BA37" s="4">
-        <v>2</v>
-      </c>
-      <c r="BB37" s="4">
-        <v>3</v>
-      </c>
-      <c r="BC37" s="4">
-        <v>2</v>
-      </c>
-      <c r="BD37" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="BE37" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="BF37" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="BG37" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="BH37" s="4" t="s">
         <v>138</v>
@@ -13731,7 +13731,7 @@
         <v>138</v>
       </c>
       <c r="BK37" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BL37" s="4" t="s">
         <v>138</v>
@@ -13743,22 +13743,22 @@
         <v>144</v>
       </c>
       <c r="BO37" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BP37" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BQ37" s="4" t="s">
         <v>141</v>
       </c>
       <c r="BR37" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BS37" s="4" t="s">
         <v>140</v>
       </c>
       <c r="BT37" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BU37" s="4" t="s">
         <v>138</v>
@@ -13871,7 +13871,7 @@
         <v>113</v>
       </c>
       <c r="DI37" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="DJ37" s="4"/>
       <c r="DK37" s="4" t="s">
@@ -13890,7 +13890,7 @@
         <v>144</v>
       </c>
       <c r="DR37" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="DS37" s="4" t="s">
         <v>152</v>
@@ -13901,7 +13901,7 @@
       <c r="DU37" s="4"/>
       <c r="DV37" s="4"/>
       <c r="DW37" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -13915,7 +13915,7 @@
         <v>126</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E38" s="4">
         <v>39</v>
@@ -13933,13 +13933,13 @@
         <v>131</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>133</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M38" s="4">
         <v>2</v>
@@ -14069,14 +14069,14 @@
         <v>5</v>
       </c>
       <c r="BD38" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BE38" s="4"/>
       <c r="BF38" s="5" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="BG38" s="4" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="BH38" s="4" t="s">
         <v>142</v>
@@ -14085,7 +14085,7 @@
         <v>142</v>
       </c>
       <c r="BJ38" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BK38" s="4" t="s">
         <v>144</v>
@@ -14240,7 +14240,7 @@
         <v>119</v>
       </c>
       <c r="DO38" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="DP38" s="4" t="s">
         <v>142</v>
@@ -14258,11 +14258,11 @@
         <v>142</v>
       </c>
       <c r="DU38" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="DV38" s="4"/>
       <c r="DW38" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -14276,7 +14276,7 @@
         <v>126</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E39" s="4">
         <v>47</v>
@@ -14288,19 +14288,19 @@
         <v>5.75</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M39" s="4">
         <v>3</v>
@@ -14432,14 +14432,14 @@
         <v>4</v>
       </c>
       <c r="BD39" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BE39" s="4"/>
       <c r="BF39" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="BG39" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="BH39" s="4" t="s">
         <v>139</v>
@@ -14448,7 +14448,7 @@
         <v>139</v>
       </c>
       <c r="BJ39" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BK39" s="4" t="s">
         <v>139</v>
@@ -14460,10 +14460,10 @@
         <v>139</v>
       </c>
       <c r="BN39" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BO39" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BP39" s="4" t="s">
         <v>140</v>
@@ -14523,7 +14523,7 @@
         <v>5</v>
       </c>
       <c r="CI39" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="CJ39" s="4">
         <v>2</v>
@@ -14548,7 +14548,7 @@
       </c>
       <c r="CQ39" s="4"/>
       <c r="CR39" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="CS39" s="4" t="s">
         <v>148</v>
@@ -14597,7 +14597,7 @@
         <v>113</v>
       </c>
       <c r="DI39" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="DJ39" s="4" t="s">
         <v>115</v>
@@ -14631,13 +14631,13 @@
         <v>148</v>
       </c>
       <c r="DU39" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="DV39" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="DW39" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -14651,7 +14651,7 @@
         <v>126</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E40" s="4">
         <v>40</v>
@@ -14669,10 +14669,10 @@
         <v>158</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>161</v>
@@ -14805,14 +14805,14 @@
         <v>4</v>
       </c>
       <c r="BD40" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BE40" s="4"/>
       <c r="BF40" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="BG40" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="BH40" s="4" t="s">
         <v>142</v>
@@ -14836,7 +14836,7 @@
         <v>139</v>
       </c>
       <c r="BO40" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BP40" s="4" t="s">
         <v>140</v>
@@ -14984,7 +14984,7 @@
       <c r="DU40" s="4"/>
       <c r="DV40" s="4"/>
       <c r="DW40" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -15139,7 +15139,7 @@
       <c r="DU41" s="14"/>
       <c r="DV41" s="14"/>
       <c r="DW41" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -15576,7 +15576,7 @@
         <v>164</v>
       </c>
       <c r="BG44" s="6" t="s">
-        <v>165</v>
+        <v>342</v>
       </c>
       <c r="BH44" s="6" t="s">
         <v>138</v>
@@ -15597,22 +15597,22 @@
         <v>142</v>
       </c>
       <c r="BN44" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BO44" s="6" t="s">
         <v>140</v>
       </c>
       <c r="BP44" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="BQ44" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="BQ44" s="6" t="s">
+      <c r="BR44" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="BS44" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="BR44" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="BS44" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="BT44" s="6" t="s">
         <v>141</v>
@@ -15660,7 +15660,7 @@
         <v>2</v>
       </c>
       <c r="CI44" s="6" t="s">
-        <v>170</v>
+        <v>343</v>
       </c>
       <c r="CJ44" s="6">
         <v>6</v>
@@ -15684,10 +15684,10 @@
         <v>4</v>
       </c>
       <c r="CQ44" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="CR44" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="CS44" s="6" t="s">
         <v>142</v>
@@ -15734,7 +15734,7 @@
         <v>113</v>
       </c>
       <c r="DI44" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="DJ44" s="6" t="s">
         <v>115</v>
@@ -15752,7 +15752,7 @@
         <v>119</v>
       </c>
       <c r="DO44" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="DP44" s="6" t="s">
         <v>142</v>
@@ -15761,7 +15761,7 @@
         <v>144</v>
       </c>
       <c r="DR44" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="DS44" s="6" t="s">
         <v>148</v>
@@ -15770,13 +15770,13 @@
         <v>144</v>
       </c>
       <c r="DU44" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="DV44" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="DW44" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -15790,7 +15790,7 @@
         <v>126</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E45" s="6">
         <v>35</v>
@@ -15799,20 +15799,20 @@
         <v>125</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>131</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M45" s="6">
         <v>1</v>
@@ -15944,16 +15944,16 @@
         <v>4</v>
       </c>
       <c r="BD45" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BE45" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BF45" s="13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="BG45" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="BH45" s="6" t="s">
         <v>138</v>
@@ -15968,10 +15968,10 @@
         <v>139</v>
       </c>
       <c r="BL45" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BM45" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN45" s="6" t="s">
         <v>139</v>
@@ -15980,16 +15980,16 @@
         <v>141</v>
       </c>
       <c r="BP45" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="BQ45" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="BQ45" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="BR45" s="6" t="s">
         <v>141</v>
       </c>
       <c r="BS45" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BT45" s="6" t="s">
         <v>140</v>
@@ -16037,7 +16037,7 @@
         <v>6</v>
       </c>
       <c r="CI45" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="CJ45" s="6">
         <v>5</v>
@@ -16061,10 +16061,10 @@
         <v>4</v>
       </c>
       <c r="CQ45" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="CR45" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="CS45" s="6" t="s">
         <v>139</v>
@@ -16113,7 +16113,7 @@
         <v>113</v>
       </c>
       <c r="DI45" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="DJ45" s="6"/>
       <c r="DK45" s="6"/>
@@ -16139,7 +16139,7 @@
       <c r="DU45" s="6"/>
       <c r="DV45" s="6"/>
       <c r="DW45" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -16153,7 +16153,7 @@
         <v>126</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E46" s="6">
         <v>62</v>
@@ -16171,13 +16171,13 @@
         <v>158</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M46" s="6">
         <v>3</v>
@@ -16312,13 +16312,13 @@
         <v>162</v>
       </c>
       <c r="BE46" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="BF46" s="13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="BG46" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="BH46" s="6" t="s">
         <v>138</v>
@@ -16351,13 +16351,13 @@
         <v>141</v>
       </c>
       <c r="BR46" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BS46" s="6" t="s">
         <v>140</v>
       </c>
       <c r="BT46" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BU46" s="6" t="s">
         <v>138</v>
@@ -16402,7 +16402,7 @@
         <v>2</v>
       </c>
       <c r="CI46" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="CJ46" s="6">
         <v>3</v>
@@ -16426,10 +16426,10 @@
         <v>7</v>
       </c>
       <c r="CQ46" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="CR46" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="CS46" s="6" t="s">
         <v>139</v>
@@ -16482,7 +16482,7 @@
         <v>119</v>
       </c>
       <c r="DO46" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="DP46" s="6" t="s">
         <v>148</v>
@@ -16500,11 +16500,11 @@
         <v>139</v>
       </c>
       <c r="DU46" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="DV46" s="6"/>
       <c r="DW46" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -16518,7 +16518,7 @@
         <v>126</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E47" s="6">
         <v>40</v>
@@ -16527,19 +16527,19 @@
         <v>125</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>158</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>161</v>
@@ -16674,14 +16674,14 @@
         <v>4</v>
       </c>
       <c r="BD47" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="BE47" s="6"/>
       <c r="BF47" s="13" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="BG47" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="BH47" s="6" t="s">
         <v>142</v>
@@ -16693,7 +16693,7 @@
         <v>139</v>
       </c>
       <c r="BK47" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BL47" s="6" t="s">
         <v>138</v>
@@ -16702,7 +16702,7 @@
         <v>139</v>
       </c>
       <c r="BN47" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BO47" s="6" t="s">
         <v>141</v>
@@ -16711,10 +16711,10 @@
         <v>140</v>
       </c>
       <c r="BQ47" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BR47" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BS47" s="6" t="s">
         <v>140</v>
@@ -16765,7 +16765,7 @@
         <v>6</v>
       </c>
       <c r="CI47" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="CJ47" s="6">
         <v>4</v>
@@ -16861,13 +16861,13 @@
         <v>144</v>
       </c>
       <c r="DU47" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="DV47" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="DW47" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -16881,7 +16881,7 @@
         <v>126</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E48" s="6">
         <v>46</v>
@@ -16890,16 +16890,16 @@
         <v>125</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>131</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>133</v>
@@ -17037,16 +17037,16 @@
         <v>2</v>
       </c>
       <c r="BD48" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="BE48" s="6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="BF48" s="13" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="BG48" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="BH48" s="6" t="s">
         <v>142</v>
@@ -17058,28 +17058,28 @@
         <v>139</v>
       </c>
       <c r="BK48" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BL48" s="6" t="s">
         <v>142</v>
       </c>
       <c r="BM48" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BN48" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BO48" s="6" t="s">
         <v>141</v>
       </c>
       <c r="BP48" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BQ48" s="6" t="s">
         <v>141</v>
       </c>
       <c r="BR48" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BS48" s="6" t="s">
         <v>140</v>
@@ -17152,10 +17152,10 @@
         <v>7</v>
       </c>
       <c r="CQ48" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="CR48" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="CS48" s="6" t="s">
         <v>148</v>
@@ -17230,7 +17230,7 @@
       <c r="DU48" s="6"/>
       <c r="DV48" s="6"/>
       <c r="DW48" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -17241,10 +17241,10 @@
         <v>128</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E49" s="6">
         <v>37</v>
@@ -17253,13 +17253,13 @@
         <v>125</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6" t="s">
@@ -17398,7 +17398,7 @@
         <v>2</v>
       </c>
       <c r="BD49" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BE49" s="6"/>
       <c r="BF49" s="13"/>
@@ -17425,22 +17425,22 @@
         <v>139</v>
       </c>
       <c r="BO49" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="BP49" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="BP49" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="BQ49" s="6" t="s">
         <v>140</v>
       </c>
       <c r="BR49" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BS49" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="BT49" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="BT49" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="BU49" s="6" t="s">
         <v>138</v>
@@ -17585,7 +17585,7 @@
         <v>126</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E50" s="6">
         <v>36</v>
@@ -17594,16 +17594,16 @@
         <v>125</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>131</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>160</v>
@@ -17741,14 +17741,14 @@
         <v>1</v>
       </c>
       <c r="BD50" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BE50" s="6"/>
       <c r="BF50" s="13" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="BG50" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="BH50" s="6" t="s">
         <v>138</v>
@@ -17760,7 +17760,7 @@
         <v>139</v>
       </c>
       <c r="BK50" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BL50" s="6" t="s">
         <v>138</v>
@@ -17769,7 +17769,7 @@
         <v>139</v>
       </c>
       <c r="BN50" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BO50" s="6" t="s">
         <v>140</v>
@@ -17778,7 +17778,7 @@
         <v>140</v>
       </c>
       <c r="BQ50" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BR50" s="6" t="s">
         <v>140</v>
@@ -17929,10 +17929,10 @@
       </c>
       <c r="DU50" s="6"/>
       <c r="DV50" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="DW50" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -17943,10 +17943,10 @@
         <v>128</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E51" s="6">
         <v>33</v>
@@ -17955,22 +17955,22 @@
         <v>125</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>158</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M51" s="6">
         <v>4</v>
@@ -18102,16 +18102,16 @@
         <v>4</v>
       </c>
       <c r="BD51" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BE51" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="BF51" s="13" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="BG51" s="6" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="BH51" s="6" t="s">
         <v>142</v>
@@ -18123,7 +18123,7 @@
         <v>138</v>
       </c>
       <c r="BK51" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BL51" s="6" t="s">
         <v>142</v>
@@ -18138,19 +18138,19 @@
         <v>140</v>
       </c>
       <c r="BP51" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BQ51" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BR51" s="6" t="s">
         <v>140</v>
       </c>
       <c r="BS51" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BT51" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BU51" s="6" t="s">
         <v>142</v>
@@ -18217,7 +18217,7 @@
         <v>6</v>
       </c>
       <c r="CQ51" s="6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="CR51" s="6"/>
       <c r="CS51" s="6" t="s">
@@ -18284,10 +18284,10 @@
       </c>
       <c r="DO51" s="6"/>
       <c r="DP51" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="DQ51" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="DR51" s="6" t="s">
         <v>139</v>
@@ -18301,7 +18301,7 @@
       <c r="DU51" s="6"/>
       <c r="DV51" s="6"/>
       <c r="DW51" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:127" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -18315,7 +18315,7 @@
         <v>126</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E52" s="6">
         <v>26</v>
@@ -18324,22 +18324,22 @@
         <v>125</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>131</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M52" s="6">
         <v>2</v>
@@ -18471,14 +18471,14 @@
         <v>3</v>
       </c>
       <c r="BD52" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BE52" s="6"/>
       <c r="BF52" s="13" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="BG52" s="6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="BH52" s="6" t="s">
         <v>142</v>
@@ -18502,22 +18502,22 @@
         <v>144</v>
       </c>
       <c r="BO52" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BP52" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BQ52" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BR52" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BS52" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BT52" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BU52" s="6" t="s">
         <v>142</v>
@@ -18660,7 +18660,7 @@
       <c r="DU52" s="6"/>
       <c r="DV52" s="6"/>
       <c r="DW52" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
